--- a/Design/Excel/EntityConditionTable.xlsx
+++ b/Design/Excel/EntityConditionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F36D561-9339-49C0-8C2C-5CF40DC2ECCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782FDD0A-0C21-4C13-9CD8-CAD746B7050B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2292" yWindow="2328" windowWidth="11940" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterRawCondition" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[AnimationWaitTime]:0.9*[PressAttack]</t>
+    <t>[AnimationWaitTime]:0.85*[PressAttack]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,14 +488,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="67.3984375" customWidth="1"/>
-    <col min="3" max="3" width="25.69921875" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="67.375" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -511,7 +511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -522,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -533,7 +533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -544,7 +544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -555,7 +555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -566,7 +566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -588,7 +588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -599,7 +599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -610,7 +610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -621,7 +621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -632,7 +632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -643,7 +643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -654,7 +654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -665,7 +665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -687,7 +687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
   </sheetData>
